--- a/sites/all/modules/custom/oop_example/data/data.xlsx
+++ b/sites/all/modules/custom/oop_example/data/data.xlsx
@@ -1051,7 +1051,7 @@
   <dimension ref="A1:D31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B34" sqref="B34"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
